--- a/archive/Sorting/07-28Sorting Afternoon shift.xlsx
+++ b/archive/Sorting/07-28Sorting Afternoon shift.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -58,9 +58,15 @@
     <t>Jamaal,Anderson</t>
   </si>
   <si>
+    <t>Edwin,Santos</t>
+  </si>
+  <si>
     <t>Elia,Uruchima</t>
   </si>
   <si>
+    <t>Yerson,Pena</t>
+  </si>
+  <si>
     <t>Oneil,Campbell</t>
   </si>
   <si>
@@ -70,13 +76,13 @@
     <t>Lorenzo,Peralta Santos</t>
   </si>
   <si>
-    <t>Yerson,Pena</t>
-  </si>
-  <si>
     <t>Jeff,Stewart</t>
   </si>
   <si>
     <t>Jose,Guaman</t>
+  </si>
+  <si>
+    <t>Hansel,Reynoso</t>
   </si>
   <si>
     <t>Jose,Correa</t>
@@ -476,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,19 +633,19 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -648,10 +654,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K5">
-        <v>75.75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -662,31 +668,31 @@
         <v>14</v>
       </c>
       <c r="C6">
+        <v>98</v>
+      </c>
+      <c r="D6">
+        <v>99</v>
+      </c>
+      <c r="E6">
+        <v>75</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
         <v>56</v>
       </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>56</v>
+        <v>78.66666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -700,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -721,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>47.5</v>
+        <v>58.75</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -732,16 +738,16 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -756,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -770,16 +776,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E9">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F9">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -791,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>42.33333333333334</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -802,19 +808,19 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -826,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>35.33333333333334</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -837,19 +843,19 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -861,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>32</v>
+        <v>35.33333333333334</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -872,7 +878,7 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -881,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -894,6 +900,9 @@
       </c>
       <c r="J12">
         <v>0</v>
+      </c>
+      <c r="K12">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -904,31 +913,95 @@
         <v>21</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
         <v>506</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>368</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>238</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>54</v>
       </c>
-      <c r="G13">
-        <v>112</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>110.2857142857143</v>
+      <c r="G15">
+        <v>178</v>
+      </c>
+      <c r="H15">
+        <v>181</v>
+      </c>
+      <c r="I15">
+        <v>31</v>
+      </c>
+      <c r="J15">
+        <v>91</v>
+      </c>
+      <c r="K15">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -938,13 +1011,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -984,8 +1057,14 @@
       <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -999,37 +1078,43 @@
         <v>115</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>98</v>
       </c>
-      <c r="F2">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>56</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>44</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>32</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>506</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1043,37 +1128,43 @@
         <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>99</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>48</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>23</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>368</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1087,37 +1178,43 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>75</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
+        <v>52</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>47</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>52</v>
-      </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>53</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>238</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1131,37 +1228,43 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <v>24</v>
+      </c>
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>15</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>54</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1175,37 +1278,43 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>30</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>112</v>
-      </c>
-      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>178</v>
+      </c>
+      <c r="P6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1222,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1245,11 +1354,17 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>181</v>
+      </c>
+      <c r="P7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1266,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1289,11 +1404,17 @@
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>31</v>
+      </c>
+      <c r="P8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1307,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1331,9 +1452,15 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>91</v>
+      </c>
+      <c r="P9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1352,19 +1479,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1372,19 +1499,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="D2">
         <v>238</v>
       </c>
       <c r="E2">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="F2">
-        <v>572</v>
+        <v>691</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1392,19 +1519,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="D3">
         <v>454</v>
       </c>
       <c r="E3">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="F3">
-        <v>774</v>
+        <v>956</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1412,19 +1539,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>239</v>
+        <v>462</v>
       </c>
       <c r="D4">
         <v>711</v>
       </c>
       <c r="E4">
-        <v>498</v>
+        <v>661</v>
       </c>
       <c r="F4">
-        <v>1448</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1432,19 +1559,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>237</v>
+        <v>414</v>
       </c>
       <c r="D5">
         <v>550</v>
       </c>
       <c r="E5">
-        <v>362</v>
+        <v>474</v>
       </c>
       <c r="F5">
-        <v>1149</v>
+        <v>1438</v>
       </c>
     </row>
   </sheetData>
@@ -1462,13 +1589,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1476,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2400</v>
+        <v>3100</v>
       </c>
       <c r="C2">
-        <v>1278</v>
+        <v>1647</v>
       </c>
       <c r="D2">
-        <v>-1122</v>
+        <v>-1453</v>
       </c>
     </row>
   </sheetData>
